--- a/dados/ADD/Dados_ADD_PF/rfma_previsoes_ajustado.xlsx
+++ b/dados/ADD/Dados_ADD_PF/rfma_previsoes_ajustado.xlsx
@@ -67,7 +67,7 @@
     <t>cod_cliente</t>
   </si>
   <si>
-    <t>Cliente</t>
+    <t>nome</t>
   </si>
   <si>
     <t>frequency_adjusted</t>
